--- a/reference/제주도 외국인 관광객 현황 2013-2018 line.xlsx
+++ b/reference/제주도 외국인 관광객 현황 2013-2018 line.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6-project\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5B6F1D-A810-4F10-9B58-6B943FCC1608}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D01D41B-7881-4D7F-AEEC-1BD91A1553E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6000" yWindow="2520" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,6 +89,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF26464"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -98,6 +103,5621 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1600"/>
+              <a:t>2015</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1600"/>
+              <a:t>년</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38557906433922462"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F26464"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-BAD9-4A76-987B-064BBD8EB1DB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-BAD9-4A76-987B-064BBD8EB1DB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>중국</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>중국 외 국가</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2237363</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>341686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BAD9-4A76-987B-064BBD8EB1DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="25000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="25000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="ko-KR"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="inEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="35000"/>
+                            <a:lumOff val="65000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:round/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$1:$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>중국</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>중국 외 국가</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$3:$C$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>3061522</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>929304</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-BAD9-4A76-987B-064BBD8EB1DB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="25000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="25000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="ko-KR"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="inEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="35000"/>
+                            <a:lumOff val="65000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:round/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$1:$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>중국</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>중국 외 국가</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$4:$C$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>747315</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>459499</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-BAD9-4A76-987B-064BBD8EB1DB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="25000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="25000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="ko-KR"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="inEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="35000"/>
+                            <a:lumOff val="65000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:round/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$1:$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>중국</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>중국 외 국가</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$5:$C$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>666120</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>504007</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-BAD9-4A76-987B-064BBD8EB1DB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+          </c:ext>
+        </c:extLst>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1600"/>
+              <a:t>2016</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1600"/>
+              <a:t>년</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38557906433922462"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F26464"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F26464"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-AF47-4226-9A44-9CF9585C8DA9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-AF47-4226-9A44-9CF9585C8DA9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>중국</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>중국 외 국가</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3061522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>929304</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BAD9-4A76-987B-064BBD8EB1DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </c:spPr>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:srgbClr val="F26464"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="25000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000005-BAD9-4A76-987B-064BBD8EB1DB}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="25000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000004-BAD9-4A76-987B-064BBD8EB1DB}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="ko-KR"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="inEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="35000"/>
+                            <a:lumOff val="65000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:round/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$1:$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>중국</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>중국 외 국가</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$2:$C$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>2237363</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>341686</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-BAD9-4A76-987B-064BBD8EB1DB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="25000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000009-AF47-4226-9A44-9CF9585C8DA9}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="25000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000B-AF47-4226-9A44-9CF9585C8DA9}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="ko-KR"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="inEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="35000"/>
+                            <a:lumOff val="65000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:round/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$1:$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>중국</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>중국 외 국가</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$4:$C$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>747315</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>459499</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-BAD9-4A76-987B-064BBD8EB1DB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="25000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000D-AF47-4226-9A44-9CF9585C8DA9}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="25000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000F-AF47-4226-9A44-9CF9585C8DA9}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="ko-KR"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="inEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="35000"/>
+                            <a:lumOff val="65000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:round/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$1:$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>중국</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>중국 외 국가</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$5:$C$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>666120</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>504007</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-BAD9-4A76-987B-064BBD8EB1DB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+          </c:ext>
+        </c:extLst>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1600"/>
+              <a:t>2017</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1600"/>
+              <a:t>년</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38557906433922462"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F26464"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F26464"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-AF47-4226-9A44-9CF9585C8DA9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-AF47-4226-9A44-9CF9585C8DA9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>중국</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>중국 외 국가</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>747315</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>459499</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BAD9-4A76-987B-064BBD8EB1DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </c:spPr>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:srgbClr val="F26464"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="25000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000005-BAD9-4A76-987B-064BBD8EB1DB}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="25000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000004-BAD9-4A76-987B-064BBD8EB1DB}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="ko-KR"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="inEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="35000"/>
+                            <a:lumOff val="65000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:round/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$1:$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>중국</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>중국 외 국가</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$2:$C$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>2237363</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>341686</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-BAD9-4A76-987B-064BBD8EB1DB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="25000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000005-AF47-4226-9A44-9CF9585C8DA9}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="25000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000007-AF47-4226-9A44-9CF9585C8DA9}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="ko-KR"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="inEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="35000"/>
+                            <a:lumOff val="65000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:round/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$1:$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>중국</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>중국 외 국가</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$3:$C$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>3061522</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>929304</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-BAD9-4A76-987B-064BBD8EB1DB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="25000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000D-AF47-4226-9A44-9CF9585C8DA9}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="25000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000F-AF47-4226-9A44-9CF9585C8DA9}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="ko-KR"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="inEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="35000"/>
+                            <a:lumOff val="65000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:round/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$1:$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>중국</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>중국 외 국가</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$5:$C$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>666120</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>504007</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-BAD9-4A76-987B-064BBD8EB1DB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+          </c:ext>
+        </c:extLst>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1600"/>
+              <a:t>2018</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1600"/>
+              <a:t>년</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38557906433922462"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F26464"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-AF47-4226-9A44-9CF9585C8DA9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-AF47-4226-9A44-9CF9585C8DA9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>중국</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>중국 외 국가</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>666120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>504007</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BAD9-4A76-987B-064BBD8EB1DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </c:spPr>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:srgbClr val="F26464"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="25000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000005-BAD9-4A76-987B-064BBD8EB1DB}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="25000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000004-BAD9-4A76-987B-064BBD8EB1DB}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="ko-KR"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="inEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="35000"/>
+                            <a:lumOff val="65000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:round/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$1:$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>중국</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>중국 외 국가</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$2:$C$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>2237363</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>341686</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-BAD9-4A76-987B-064BBD8EB1DB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="25000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000005-AF47-4226-9A44-9CF9585C8DA9}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="25000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000007-AF47-4226-9A44-9CF9585C8DA9}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="ko-KR"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="inEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="35000"/>
+                            <a:lumOff val="65000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:round/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$1:$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>중국</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>중국 외 국가</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$3:$C$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>3061522</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>929304</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-BAD9-4A76-987B-064BBD8EB1DB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="25000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000009-AF47-4226-9A44-9CF9585C8DA9}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="25000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000B-AF47-4226-9A44-9CF9585C8DA9}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="ko-KR"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="inEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="35000"/>
+                            <a:lumOff val="65000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:round/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$1:$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>중국</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>중국 외 국가</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$4:$C$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>747315</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>459499</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-BAD9-4A76-987B-064BBD8EB1DB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+          </c:ext>
+        </c:extLst>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C3A305-0641-4D21-8553-6824ECA982FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="차트 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8CD871B-FCED-415A-8529-6E329FE746FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="차트 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B858A2B-5697-4EFD-B886-F2A6DFC3B635}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="차트 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D51B734-FE5D-4DB7-A99E-C113FEE4EE3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -365,8 +5985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E823C4-EA3F-4A33-9F98-7AB6E8F46F86}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -430,5 +6050,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>